--- a/biology/Botanique/Amanita_exitialis/Amanita_exitialis.xlsx
+++ b/biology/Botanique/Amanita_exitialis/Amanita_exitialis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amanita exitialis est une espèce de champignons Basidiomycètes de la famille des Amanitaceae. Cette espèce asiatique est mortelle.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le carpophore, c'est-à-dire la fructification de ce champignon est blanche, de taille petite ou moyenne, avec des chapeaux pouvant mesurer jusqu'à 7 cm de diamètre, un anneau peu friable et une volve solide. Contrairement à beaucoup de Basidiomycètes qui possèdent quatre basides, ce champignon n'en possède que deux.
 Les analyses moléculaires montrent que cette espèce est phylogénétiquement proche de trois autres amanites blanches, Amanita subjunquillea, Amanita virosa et Amanita bisporigera.[réf. nécessaire]
@@ -543,7 +557,9 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Amanita exitialis se rencontre de la Chine à l'Inde où elle a été parfois identifiée par erreur comme Amanita verna. 
 </t>
@@ -574,9 +590,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amabita exitialis est très toxique[1]. Huit personnes ont été mortellement empoisonnées en Chine après avoir consommé son carpophore en 2000, et entre cette date et 2010, vingt autres l'ont également été.[réf. nécessaire] 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amabita exitialis est très toxique. Huit personnes ont été mortellement empoisonnées en Chine après avoir consommé son carpophore en 2000, et entre cette date et 2010, vingt autres l'ont également été.[réf. nécessaire] 
 </t>
         </is>
       </c>
